--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T14:25:37+00:00</t>
+    <t>2025-07-07T14:29:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T14:29:04+00:00</t>
+    <t>2025-07-07T14:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T14:49:37+00:00</t>
+    <t>2025-07-07T14:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T14:58:58+00:00</t>
+    <t>2025-07-07T15:15:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T15:15:01+00:00</t>
+    <t>2025-07-07T15:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T15:19:12+00:00</t>
+    <t>2025-07-07T15:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T15:31:56+00:00</t>
+    <t>2025-07-07T15:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T15:40:31+00:00</t>
+    <t>2025-07-07T15:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T15:58:27+00:00</t>
+    <t>2025-07-08T09:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T09:09:55+00:00</t>
+    <t>2025-07-08T09:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T09:44:54+00:00</t>
+    <t>2025-07-08T10:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T10:09:50+00:00</t>
+    <t>2025-07-08T10:17:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T10:17:48+00:00</t>
+    <t>2025-07-08T12:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T12:10:20+00:00</t>
+    <t>2025-07-08T13:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T13:39:56+00:00</t>
+    <t>2025-07-08T14:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T14:28:56+00:00</t>
+    <t>2025-07-09T05:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T05:56:41+00:00</t>
+    <t>2025-07-09T09:19:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:19:04+00:00</t>
+    <t>2025-07-09T09:38:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:38:44+00:00</t>
+    <t>2025-07-09T09:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:51:05+00:00</t>
+    <t>2025-07-09T09:52:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:52:45+00:00</t>
+    <t>2025-07-09T10:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T10:26:35+00:00</t>
+    <t>2025-07-09T11:24:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:24:00+00:00</t>
+    <t>2025-07-09T11:30:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:30:58+00:00</t>
+    <t>2025-07-09T11:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:38:58+00:00</t>
+    <t>2025-07-09T11:42:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:42:25+00:00</t>
+    <t>2025-07-09T11:55:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:55:45+00:00</t>
+    <t>2025-07-09T12:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T12:14:22+00:00</t>
+    <t>2025-07-09T12:23:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T12:23:38+00:00</t>
+    <t>2025-07-09T12:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T12:32:41+00:00</t>
+    <t>2025-07-09T12:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T12:39:51+00:00</t>
+    <t>2025-07-09T13:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T13:56:01+00:00</t>
+    <t>2025-07-09T14:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T14:32:54+00:00</t>
+    <t>2025-07-09T14:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T14:44:56+00:00</t>
+    <t>2025-07-09T15:15:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T15:15:48+00:00</t>
+    <t>2025-07-10T13:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T13:30:38+00:00</t>
+    <t>2025-07-11T07:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:23:13+00:00</t>
+    <t>2025-07-11T08:11:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:11:52+00:00</t>
+    <t>2025-07-11T08:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:49:55+00:00</t>
+    <t>2025-07-11T09:11:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:11:22+00:00</t>
+    <t>2025-07-11T09:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:24:25+00:00</t>
+    <t>2025-07-11T13:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T13:10:23+00:00</t>
+    <t>2025-07-11T13:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T13:25:59+00:00</t>
+    <t>2025-07-11T14:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T14:29:46+00:00</t>
+    <t>2025-07-11T15:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T15:40:09+00:00</t>
+    <t>2025-07-28T12:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T12:23:44+00:00</t>
+    <t>2025-07-28T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T12:38:03+00:00</t>
+    <t>2025-07-28T12:47:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T12:47:10+00:00</t>
+    <t>2025-07-28T12:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T12:58:14+00:00</t>
+    <t>2025-07-28T13:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:08:27+00:00</t>
+    <t>2025-07-28T13:09:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:09:04+00:00</t>
+    <t>2025-07-28T14:17:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:17:16+00:00</t>
+    <t>2025-07-29T08:29:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T08:29:25+00:00</t>
+    <t>2025-07-29T13:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T13:34:58+00:00</t>
+    <t>2025-07-29T16:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T16:00:00+00:00</t>
+    <t>2025-07-30T06:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T06:27:58+00:00</t>
+    <t>2025-07-30T06:57:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T06:57:40+00:00</t>
+    <t>2025-07-30T07:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T07:19:52+00:00</t>
+    <t>2025-07-30T07:43:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/321-renommage-et-réorganisation-de-longlet-spécifications-fonctionnelles/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T07:43:29+00:00</t>
+    <t>2025-07-30T08:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
